--- a/PS-VRP/Dati_output/best_ridotto.xlsx
+++ b/PS-VRP/Dati_output/best_ridotto.xlsx
@@ -38,14 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,14 +56,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,14 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>

--- a/PS-VRP/Dati_output/best_ridotto.xlsx
+++ b/PS-VRP/Dati_output/best_ridotto.xlsx
@@ -38,8 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,8 +50,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -62,26 +68,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00EAD1DC"/>
         <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>253194</v>
+        <v>252569</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>243569</v>
+        <v>252995</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:05</t>
+          <t>08-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:55:05</t>
+          <t>08-09-2025 07:45:35</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>244023</v>
+        <v>253361</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:45</t>
+          <t>08-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 11:52:45</t>
+          <t>08-09-2025 09:25:54</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>253710</v>
+        <v>252216</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:04</t>
+          <t>08-09-2025 10:42:36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:04</t>
+          <t>08-09-2025 11:13:36</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -633,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>252833</v>
+        <v>250284</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:41</t>
+          <t>08-09-2025 13:35:25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:41</t>
+          <t>08-09-2025 13:54:25</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252939</v>
+        <v>244023</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:57:28</t>
+          <t>09-09-2025 08:20:46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:28</t>
+          <t>09-09-2025 08:39:46</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>253100</v>
+        <v>252939</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:16</t>
+          <t>09-09-2025 08:48:04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 09:09:04</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -702,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>250891</v>
+        <v>253359</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:37</t>
+          <t>09-09-2025 10:38:52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:37</t>
+          <t>09-09-2025 10:57:52</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -725,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>253268</v>
+        <v>253267</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:25:06</t>
+          <t>09-09-2025 13:11:53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:42:06</t>
+          <t>09-09-2025 13:28:53</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -748,7 +748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>253267</v>
+        <v>253268</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -757,12 +757,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:40</t>
+          <t>10-09-2025 08:13:15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:40</t>
+          <t>10-09-2025 08:28:15</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 07:00:02</t>
+          <t>10-09-2025 09:46:49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 07:17:02</t>
+          <t>10-09-2025 10:03:49</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>253246</v>
+        <v>253527</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -803,12 +803,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:47</t>
+          <t>10-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 08:32:47</t>
+          <t>10-09-2025 11:17:34</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -817,7 +817,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>253375</v>
+        <v>253602</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 11:47:02</t>
+          <t>10-09-2025 12:25:03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:02</t>
+          <t>10-09-2025 12:59:03</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -839,353 +839,355 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>253361</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 12:57:55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 13:12:55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="A15" s="3" t="n">
+        <v>252827</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:27:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>253372</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:29:38</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:44:38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="A16" s="4" t="n">
+        <v>253100</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>253370</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 08:28:24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 08:43:24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="A17" s="4" t="n">
+        <v>253710</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:04:21</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:21:21</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>253368</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 12:10:57</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 12:25:57</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="A18" s="4" t="n">
+        <v>250891</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:22:58</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:41:58</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>253409</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:29:00</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:59:27</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:33:27</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>252569</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:56:11</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:25:11</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
+      <c r="A20" s="4" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:00:38</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:32:38</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>252827</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:34:46</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:01:46</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="A21" s="4" t="n">
+        <v>252906</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:38:37</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:12:37</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>252995</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:51:46</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:18:46</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
+      <c r="A22" s="4" t="n">
+        <v>252833</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:47:20</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:19:20</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>253271</v>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:27:05</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:13:05</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="A23" s="4" t="n">
+        <v>253278</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:34:07</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:55:07</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>253527</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:55:43</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:26:43</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="A24" s="4" t="n">
+        <v>253072</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:23:33</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:38:33</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>253095</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:34:12</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:01:12</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="A25" s="4" t="n">
+        <v>253260</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:07:41</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:26:41</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>253721</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:17:31</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:44:31</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
+      <c r="A26" s="4" t="n">
+        <v>253659</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:16:05</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:33:05</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>253359</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:23:54</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:52:54</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n">
+      <c r="A27" s="4" t="n">
+        <v>253687</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:56:50</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:11:50</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>253332</v>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:06:55</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:33:55</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n">
+      <c r="A28" s="4" t="n">
+        <v>253686</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:56:04</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:11:04</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>253245</v>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 13:38:45</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:07:45</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n">
+      <c r="A29" s="4" t="n">
+        <v>253401</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:55:18</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:14:18</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>253259</v>
+        <v>253245</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1194,23 +1196,21 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>10-09-2025 08:37:07</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-09-2025 08:54:07</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253313</v>
+        <v>253368</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>10-09-2025 11:24:57</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 09:00:14</t>
+          <t>10-09-2025 11:43:57</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>252843</v>
+        <v>253370</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:40:14</t>
+          <t>10-09-2025 13:27:44</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:05:14</t>
+          <t>10-09-2025 13:42:44</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1256,7 +1256,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253591</v>
+        <v>253377</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1265,23 +1265,21 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:24:26</t>
+          <t>11-09-2025 09:10:16</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:26</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>11-09-2025 09:25:16</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>253374</v>
+        <v>253455</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1290,12 +1288,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:51</t>
+          <t>11-09-2025 11:32:59</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:51</t>
+          <t>11-09-2025 11:51:59</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1304,7 +1302,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>252664</v>
+        <v>253261</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1313,23 +1311,21 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:28</t>
+          <t>11-09-2025 12:47:33</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:28</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>11-09-2025 13:06:33</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>253706</v>
+        <v>253436</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1338,12 +1334,12 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:26</t>
+          <t>11-09-2025 13:25:24</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:26</t>
+          <t>11-09-2025 13:40:24</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
@@ -1352,7 +1348,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>253284</v>
+        <v>252741</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -1361,12 +1357,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:26</t>
+          <t>11-09-2025 13:59:15</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:21:26</t>
+          <t>11-09-2025 14:16:15</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
@@ -1375,7 +1371,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>253687</v>
+        <v>252274</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -1384,12 +1380,12 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:18:26</t>
+          <t>12-09-2025 07:17:44</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:26</t>
+          <t>12-09-2025 07:55:44</t>
         </is>
       </c>
       <c r="E38" s="4" t="n">
@@ -1398,7 +1394,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>253686</v>
+        <v>244743</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -1407,12 +1403,12 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:40</t>
+          <t>12-09-2025 10:49:09</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:49:40</t>
+          <t>12-09-2025 11:23:09</t>
         </is>
       </c>
       <c r="E39" s="4" t="n">
@@ -1420,386 +1416,378 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>252883</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="A40" s="4" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:52:30</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:11:30</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>253706</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:01:34</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:37:34</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>253095</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:48:34</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:30:34</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:46:53</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:03:53</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:55:46</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:14:46</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 12:01:16</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 12:20:16</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:52:25</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:07:25</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:55:11</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 08:10:11</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:25:53</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:40:53</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:40:29</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:01:29</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 10:53:17</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 11:10:17</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>253522</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 13:53:57</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:14:57</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:33:35</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:48:35</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 11:47:45</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 12:04:45</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:14:37</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:48:37</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>253721</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>09-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:52:30</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="n">
-        <v>253140</v>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>04-09-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D41" s="6" t="inlineStr">
-        <is>
-          <t>04-09-2025 12:50:00</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>04-09-2025 13:45:50</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:20:50</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n">
-        <v>253314</v>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:39:34</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:09:34</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n">
-        <v>252582</v>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:52:58</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:22:58</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n">
-        <v>252682</v>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:09:03</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:39:03</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>252679</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:02:28</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:32:28</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n">
-        <v>252002</v>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:32:28</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:12:28</t>
-        </is>
-      </c>
-      <c r="E47" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n">
-        <v>253223</v>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:08:08</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:18:08</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>252601</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:34:32</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:04:32</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>253072</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:55:45</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:00:45</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>253278</v>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:29:53</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:54:53</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>253210</v>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:23:18</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:23:18</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>253208</v>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:57:28</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:22:28</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>253260</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:06:43</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:16:43</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>253249</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:06:08</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:46:08</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:34:30</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>253317</v>
+        <v>252002</v>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
@@ -1808,21 +1796,23 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:53</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 14:08:53</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>0</v>
+          <t>04-09-2025 12:55:00</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>253318</v>
+        <v>252685</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
@@ -1831,21 +1821,23 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:40</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:40</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>0</v>
+          <t>04-09-2025 14:40:40</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>253602</v>
+        <v>252679</v>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
@@ -1854,21 +1846,23 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 09:08:13</t>
+          <t>05-09-2025 07:55:14</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:13</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 08:25:14</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>253247</v>
+        <v>252682</v>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
@@ -1877,21 +1871,23 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 11:40:18</t>
+          <t>05-09-2025 09:25:14</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 12:20:18</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 09:55:14</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>253401</v>
+        <v>252582</v>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
@@ -1900,299 +1896,765 @@
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 14:09:52</t>
+          <t>05-09-2025 11:18:39</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 14:39:52</t>
-        </is>
-      </c>
-      <c r="E60" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 11:48:39</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>252906</v>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="A61" s="6" t="n">
+        <v>253284</v>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:34:44</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:04:44</t>
+        </is>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>253314</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:01:43</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:41:43</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>253036</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:25:08</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:55:08</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>252815</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:13:52</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:03:52</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>253208</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:48</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:06:48</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>253210</v>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:51:04</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:16:04</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:50:13</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:50:13</t>
+        </is>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>253223</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:32:51</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:32:51</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>252601</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:49:15</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:19:15</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>252883</v>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:10:28</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:45:28</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>253313</v>
+      </c>
+      <c r="B71" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C61" s="7" t="inlineStr">
+      <c r="C71" s="7" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D61" s="7" t="inlineStr">
+      <c r="D71" s="7" t="inlineStr">
         <is>
           <t>08-09-2025 07:17:00</t>
         </is>
       </c>
-      <c r="E61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="n">
+      <c r="E71" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B72" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C72" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:57:00</t>
+        </is>
+      </c>
+      <c r="D72" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:14:00</t>
+        </is>
+      </c>
+      <c r="E72" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B73" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:35:41</t>
+        </is>
+      </c>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:54:41</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B74" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:46:14</t>
+        </is>
+      </c>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:01:14</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:44:00</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:00</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B76" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C76" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:56:46</t>
+        </is>
+      </c>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:23:46</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>253140</v>
+      </c>
+      <c r="B77" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C77" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:42:58</t>
+        </is>
+      </c>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:09:58</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
         <v>253425</v>
       </c>
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:51:43</t>
-        </is>
-      </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:08:43</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="n">
-        <v>252815</v>
-      </c>
-      <c r="B63" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C63" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:35:04</t>
-        </is>
-      </c>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:56:04</t>
-        </is>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="n">
-        <v>253659</v>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C64" s="8" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>09-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D64" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E64" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="n">
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:01:21</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:36:21</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:55:26</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n">
+        <v>253372</v>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:20:00</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:55:00</t>
+        </is>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:38:47</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:08:47</t>
+        </is>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n">
+        <v>253246</v>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:13:36</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:48:36</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:02:51</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:37:51</t>
+        </is>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="n">
         <v>253016</v>
       </c>
-      <c r="B65" s="9" t="inlineStr">
+      <c r="B85" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C65" s="9" t="inlineStr">
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>05-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="D85" s="8" t="inlineStr">
         <is>
           <t>05-09-2025 07:30:00</t>
         </is>
       </c>
-      <c r="E65" s="9" t="inlineStr">
+      <c r="E85" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="9" t="n">
+    <row r="86">
+      <c r="A86" s="8" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="D86" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:13:23</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="n">
         <v>253362</v>
       </c>
-      <c r="B66" s="9" t="inlineStr">
+      <c r="B87" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:13:23</t>
-        </is>
-      </c>
-      <c r="E66" s="9" t="inlineStr">
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:11:46</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="9" t="n">
-        <v>252702</v>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="8" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B88" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:11:46</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
+      <c r="C88" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:35:09</t>
+        </is>
+      </c>
+      <c r="D88" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:10:09</t>
+        </is>
+      </c>
+      <c r="E88" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9" t="n">
+    <row r="89">
+      <c r="A89" s="8" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:19:23</t>
+        </is>
+      </c>
+      <c r="D89" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:54:23</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="n">
         <v>235572</v>
       </c>
-      <c r="B68" s="9" t="inlineStr">
+      <c r="B90" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:35:09</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:15:09</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
+      <c r="C90" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:11:48</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:51:48</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="n">
+        <v>253374</v>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:38:08</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:18:08</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="n">
-        <v>252216</v>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:44:29</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:19:29</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="n">
-        <v>252685</v>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:41:17</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:41:17</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:14:47</t>
+        </is>
+      </c>
+      <c r="D91" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:44:47</t>
+        </is>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="n">
         <v>252980</v>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="B92" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
+      <c r="C92" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D72" s="5" t="inlineStr">
+      <c r="D92" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E92" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/best_ridotto.xlsx
+++ b/PS-VRP/Dati_output/best_ridotto.xlsx
@@ -38,20 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D5E8D4"/>
         <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,8 +56,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,8 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252569</v>
+        <v>253318</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252995</v>
+        <v>252569</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 08:08:33</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 08:27:33</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>253361</v>
+        <v>253140</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:54</t>
+          <t>08-09-2025 08:37:08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:25:54</t>
+          <t>08-09-2025 08:56:08</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252216</v>
+        <v>244023</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:36</t>
+          <t>08-09-2025 09:51:58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 11:13:36</t>
+          <t>08-09-2025 10:27:58</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -633,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>250284</v>
+        <v>253194</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:35:25</t>
+          <t>08-09-2025 10:36:16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:54:25</t>
+          <t>08-09-2025 11:12:16</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>244023</v>
+        <v>252216</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:20:46</t>
+          <t>08-09-2025 14:31:21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:39:46</t>
+          <t>09-09-2025 07:15:21</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252939</v>
+        <v>253100</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:04</t>
+          <t>09-09-2025 09:37:10</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:04</t>
+          <t>09-09-2025 10:04:10</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -702,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>253359</v>
+        <v>253095</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:38:52</t>
+          <t>09-09-2025 10:51:31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:52</t>
+          <t>09-09-2025 11:10:31</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -725,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>253267</v>
+        <v>252906</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 13:11:53</t>
+          <t>09-09-2025 12:26:50</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:53</t>
+          <t>09-09-2025 13:00:50</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -757,12 +757,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 08:13:15</t>
+          <t>09-09-2025 13:35:33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 08:28:15</t>
+          <t>09-09-2025 14:11:33</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 09:46:49</t>
+          <t>10-09-2025 07:30:07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 10:03:49</t>
+          <t>10-09-2025 07:47:07</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -803,12 +803,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 11:02:34</t>
+          <t>10-09-2025 08:45:52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 11:17:34</t>
+          <t>10-09-2025 09:00:52</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -817,7 +817,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>253602</v>
+        <v>253374</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 12:25:03</t>
+          <t>10-09-2025 10:08:21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 12:59:03</t>
+          <t>10-09-2025 10:25:21</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -840,7 +840,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>252827</v>
+        <v>253425</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
@@ -862,100 +862,100 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>253100</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="A16" s="3" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:55:21</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:28:21</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>253710</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:04:21</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:21:21</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="A17" s="3" t="n">
+        <v>252939</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:47:33</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:39:33</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>250891</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:22:58</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:41:58</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="A18" s="3" t="n">
+        <v>252815</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:09:21</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:59:21</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>253409</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:59:27</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:33:27</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="A19" s="3" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:02:17</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:52:17</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>252664</v>
+        <v>252685</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -964,12 +964,12 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:00:38</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:32:38</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -980,7 +980,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>252906</v>
+        <v>253016</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -989,21 +989,23 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:38:37</t>
+          <t>05-09-2025 08:46:34</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:12:37</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 09:20:34</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>252833</v>
+        <v>252702</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -1012,21 +1014,23 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:20</t>
+          <t>05-09-2025 10:33:57</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:19:20</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 10:50:57</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>253278</v>
+        <v>253362</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -1035,21 +1039,23 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:34:07</t>
+          <t>05-09-2025 11:49:20</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:07</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 12:04:20</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>253072</v>
+        <v>253591</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -1058,21 +1064,23 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:33</t>
+          <t>05-09-2025 13:02:43</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:33</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 13:36:43</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>253260</v>
+        <v>252995</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1081,12 +1089,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 14:07:41</t>
+          <t>05-09-2025 13:54:08</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:41</t>
+          <t>05-09-2025 14:13:08</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
@@ -1095,7 +1103,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>253659</v>
+        <v>253259</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1104,21 +1112,23 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 08:16:05</t>
+          <t>08-09-2025 07:21:27</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:05</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>0</v>
+          <t>08-09-2025 07:53:27</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>253687</v>
+        <v>253267</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1127,12 +1137,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 13:56:50</t>
+          <t>08-09-2025 09:02:41</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:50</t>
+          <t>08-09-2025 09:21:41</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
@@ -1141,7 +1151,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>253686</v>
+        <v>253706</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1150,12 +1160,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:56:04</t>
+          <t>08-09-2025 12:06:03</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 07:11:04</t>
+          <t>08-09-2025 12:44:03</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1164,7 +1174,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>253401</v>
+        <v>253284</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1173,12 +1183,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 07:55:18</t>
+          <t>09-09-2025 09:55:03</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:14:18</t>
+          <t>09-09-2025 10:18:03</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1187,7 +1197,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>253245</v>
+        <v>253313</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1196,12 +1206,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:37:07</t>
+          <t>09-09-2025 11:15:02</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:54:07</t>
+          <t>09-09-2025 11:30:02</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1210,7 +1220,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253368</v>
+        <v>252827</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1219,12 +1229,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 11:24:57</t>
+          <t>09-09-2025 13:10:03</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 11:43:57</t>
+          <t>09-09-2025 13:29:03</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1233,7 +1243,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>253370</v>
+        <v>253710</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1242,12 +1252,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 13:27:44</t>
+          <t>10-09-2025 12:19:03</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:44</t>
+          <t>10-09-2025 12:51:03</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1256,538 +1266,544 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:52:40</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:09:40</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>253401</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:34:30</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>253659</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:57:19</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:31:49</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>253687</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:55:34</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:26:04</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>253686</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:10:18</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:40:48</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:25:02</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:55:32</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>253370</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 12:45:36</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:22:06</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:49:39</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:20:09</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:07:55</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:38:25</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:38:01</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 07:10:31</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:20:23</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:56:53</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>253368</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:58:23</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:34:53</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:18:39</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:51:09</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:00:32</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:37:02</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:20:42</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:57:12</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:14:50</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:47:20</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
         <v>253377</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 09:10:16</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 09:25:16</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>253455</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 11:32:59</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 11:51:59</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>253261</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 12:47:33</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 13:06:33</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>253436</v>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 13:25:24</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 13:40:24</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>252741</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 13:59:15</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>11-09-2025 14:16:15</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>252274</v>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 07:17:44</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 07:55:44</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>244743</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 10:49:09</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 11:23:09</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>253295</v>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 11:52:30</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 12:11:30</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:19:29</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:49:59</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:57:42</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>16-09-2025 11:28:12</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>252002</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:55:00</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>253706</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 08:01:34</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 08:37:34</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>253095</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 13:48:34</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 14:30:34</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>253375</v>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 07:46:53</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 08:03:53</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>253244</v>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 08:55:46</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 09:14:46</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>253525</v>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 12:01:16</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 12:20:16</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>253371</v>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 13:52:25</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 14:07:25</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>253367</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 07:55:11</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 08:10:11</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>253376</v>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 10:25:53</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 10:40:53</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>253472</v>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 13:40:29</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 14:01:29</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>253549</v>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 10:53:17</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 11:10:17</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>253522</v>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 13:53:57</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 14:14:57</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>253528</v>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 09:33:35</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 09:48:35</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="n">
+      <c r="A52" s="6" t="n">
+        <v>252883</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 13:50:40</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:55:40</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>253668</v>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 11:47:45</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 12:04:45</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>0</v>
+      <c r="A53" s="6" t="n">
+        <v>253314</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:02:59</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:17:59</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>252397</v>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>22-09-2025 07:14:37</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
-        <is>
-          <t>22-09-2025 07:48:37</t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="n">
+      <c r="A54" s="6" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:01:23</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:31:23</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
-        <v>253721</v>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:34:30</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>0</v>
+      <c r="A55" s="6" t="n">
+        <v>252682</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:29:09</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:59:09</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>252002</v>
+        <v>252679</v>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
@@ -1796,12 +1812,12 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>08-09-2025 08:22:33</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>08-09-2025 08:52:33</t>
         </is>
       </c>
       <c r="E56" s="6" t="inlineStr">
@@ -1812,7 +1828,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>252685</v>
+        <v>252582</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
@@ -1821,12 +1837,12 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 09:52:33</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:40:40</t>
+          <t>08-09-2025 10:27:33</t>
         </is>
       </c>
       <c r="E57" s="6" t="inlineStr">
@@ -1837,7 +1853,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>252679</v>
+        <v>250891</v>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
@@ -1846,23 +1862,21 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 07:55:14</t>
+          <t>08-09-2025 11:13:38</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 08:25:14</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 11:58:38</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>252682</v>
+        <v>253036</v>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
@@ -1871,23 +1885,21 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 09:25:14</t>
+          <t>08-09-2025 13:16:08</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 09:55:14</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 14:01:08</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>252582</v>
+        <v>252601</v>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
@@ -1896,23 +1908,21 @@
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 11:18:39</t>
+          <t>09-09-2025 07:19:52</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 11:48:39</t>
-        </is>
-      </c>
-      <c r="E60" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-09-2025 08:49:52</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n">
-        <v>253284</v>
+        <v>253208</v>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
@@ -1921,12 +1931,12 @@
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
+          <t>09-09-2025 09:41:04</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 13:04:44</t>
+          <t>09-09-2025 10:11:04</t>
         </is>
       </c>
       <c r="E61" s="6" t="n">
@@ -1935,7 +1945,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="n">
-        <v>253314</v>
+        <v>253210</v>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
@@ -1944,23 +1954,21 @@
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:01:43</t>
+          <t>09-09-2025 11:55:20</t>
         </is>
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:41:43</t>
-        </is>
-      </c>
-      <c r="E62" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-09-2025 12:20:20</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="n">
-        <v>253036</v>
+        <v>253260</v>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
@@ -1969,12 +1977,12 @@
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:25:08</t>
+          <t>09-09-2025 13:54:29</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:55:08</t>
+          <t>10-09-2025 07:04:29</t>
         </is>
       </c>
       <c r="E63" s="6" t="n">
@@ -1983,7 +1991,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="n">
-        <v>252815</v>
+        <v>253072</v>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
@@ -1992,12 +2000,12 @@
       </c>
       <c r="C64" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 09:13:52</t>
+          <t>10-09-2025 08:53:54</t>
         </is>
       </c>
       <c r="D64" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:52</t>
+          <t>10-09-2025 09:28:54</t>
         </is>
       </c>
       <c r="E64" s="6" t="n">
@@ -2006,7 +2014,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="n">
-        <v>253208</v>
+        <v>253245</v>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
@@ -2015,12 +2023,12 @@
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:48</t>
+          <t>10-09-2025 09:58:02</t>
         </is>
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 07:06:48</t>
+          <t>10-09-2025 10:33:02</t>
         </is>
       </c>
       <c r="E65" s="6" t="n">
@@ -2029,7 +2037,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="n">
-        <v>253210</v>
+        <v>253223</v>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
@@ -2038,12 +2046,12 @@
       </c>
       <c r="C66" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 08:51:04</t>
+          <t>10-09-2025 13:03:52</t>
         </is>
       </c>
       <c r="D66" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:04</t>
+          <t>10-09-2025 14:13:52</t>
         </is>
       </c>
       <c r="E66" s="6" t="n">
@@ -2052,7 +2060,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="n">
-        <v>253271</v>
+        <v>253436</v>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
@@ -2061,12 +2069,12 @@
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:13</t>
+          <t>10-09-2025 14:30:16</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:13</t>
+          <t>11-09-2025 07:30:16</t>
         </is>
       </c>
       <c r="E67" s="6" t="n">
@@ -2075,7 +2083,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="n">
-        <v>253223</v>
+        <v>253261</v>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
@@ -2084,12 +2092,12 @@
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:51</t>
+          <t>11-09-2025 07:49:07</t>
         </is>
       </c>
       <c r="D68" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 13:32:51</t>
+          <t>11-09-2025 08:14:07</t>
         </is>
       </c>
       <c r="E68" s="6" t="n">
@@ -2098,7 +2106,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="n">
-        <v>252601</v>
+        <v>253455</v>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
@@ -2107,12 +2115,12 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 13:49:15</t>
+          <t>11-09-2025 08:32:58</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
         <is>
-          <t>09-09-2025 14:19:15</t>
+          <t>11-09-2025 09:07:58</t>
         </is>
       </c>
       <c r="E69" s="6" t="n">
@@ -2121,7 +2129,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="n">
-        <v>252883</v>
+        <v>252529</v>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
@@ -2130,12 +2138,12 @@
       </c>
       <c r="C70" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 07:10:28</t>
+          <t>11-09-2025 10:03:31</t>
         </is>
       </c>
       <c r="D70" s="6" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:28</t>
+          <t>11-09-2025 10:43:31</t>
         </is>
       </c>
       <c r="E70" s="6" t="n">
@@ -2143,518 +2151,556 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="n">
-        <v>253313</v>
-      </c>
-      <c r="B71" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C71" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D71" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E71" s="7" t="n">
+      <c r="A71" s="6" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:51:36</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:26:36</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B72" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C72" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:57:00</t>
-        </is>
-      </c>
-      <c r="D72" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:14:00</t>
-        </is>
-      </c>
-      <c r="E72" s="7" t="n">
+      <c r="A72" s="6" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:23:41</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 07:08:41</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="n">
-        <v>253318</v>
-      </c>
-      <c r="B73" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C73" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:35:41</t>
-        </is>
-      </c>
-      <c r="D73" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:54:41</t>
-        </is>
-      </c>
-      <c r="E73" s="7" t="n">
+      <c r="A73" s="6" t="n">
+        <v>253522</v>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 07:38:02</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:13:02</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="n">
-        <v>253317</v>
-      </c>
-      <c r="B74" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C74" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:46:14</t>
-        </is>
-      </c>
-      <c r="D74" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:01:14</t>
-        </is>
-      </c>
-      <c r="E74" s="7" t="n">
+      <c r="A74" s="6" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:31:39</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:56:39</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="n">
-        <v>253249</v>
-      </c>
-      <c r="B75" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C75" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:44:00</t>
-        </is>
-      </c>
-      <c r="D75" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:59:00</t>
-        </is>
-      </c>
-      <c r="E75" s="7" t="n">
+      <c r="A75" s="6" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:55:50</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:40:50</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="n">
-        <v>252843</v>
-      </c>
-      <c r="B76" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C76" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:56:46</t>
-        </is>
-      </c>
-      <c r="D76" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:23:46</t>
-        </is>
-      </c>
-      <c r="E76" s="7" t="n">
+      <c r="A76" s="6" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:34:15</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 10:14:15</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n">
-        <v>253140</v>
-      </c>
-      <c r="B77" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C77" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:42:58</t>
-        </is>
-      </c>
-      <c r="D77" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:09:58</t>
-        </is>
-      </c>
-      <c r="E77" s="7" t="n">
+      <c r="A77" s="6" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:00:45</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:50:45</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="n">
-        <v>253425</v>
+        <v>253472</v>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:46:40</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>16-09-2025 08:26:40</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B79" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C79" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B80" s="8" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr">
+      <c r="C80" s="8" t="inlineStr">
         <is>
           <t>09-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D78" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E78" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6" t="n">
-        <v>253194</v>
-      </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="D80" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:45:00</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="n">
+        <v>253246</v>
+      </c>
+      <c r="B81" s="8" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:01:21</t>
-        </is>
-      </c>
-      <c r="D79" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:36:21</t>
-        </is>
-      </c>
-      <c r="E79" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="6" t="n">
-        <v>253247</v>
-      </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="C81" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:27:38</t>
+        </is>
+      </c>
+      <c r="D81" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:02:38</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B82" s="8" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:55:26</t>
-        </is>
-      </c>
-      <c r="D80" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:30:26</t>
-        </is>
-      </c>
-      <c r="E80" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="6" t="n">
+      <c r="C82" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:16:53</t>
+        </is>
+      </c>
+      <c r="D82" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:51:53</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="n">
+        <v>253721</v>
+      </c>
+      <c r="B83" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:56:42</t>
+        </is>
+      </c>
+      <c r="D83" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:26:42</t>
+        </is>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>253409</v>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:07:11</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:42:11</t>
+        </is>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:03:51</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:38:51</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:44:50</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:39:50</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:06:11</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:46:11</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>252833</v>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:09:10</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:44:10</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>253278</v>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:58:57</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:38:57</t>
+        </is>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>253361</v>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:07:22</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:52:22</t>
+        </is>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:09:05</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:34:05</t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
         <v>253372</v>
       </c>
-      <c r="B81" s="6" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C81" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:20:00</t>
-        </is>
-      </c>
-      <c r="D81" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:55:00</t>
-        </is>
-      </c>
-      <c r="E81" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="6" t="n">
-        <v>253332</v>
-      </c>
-      <c r="B82" s="6" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C82" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:38:47</t>
-        </is>
-      </c>
-      <c r="D82" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:08:47</t>
-        </is>
-      </c>
-      <c r="E82" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="6" t="n">
-        <v>253246</v>
-      </c>
-      <c r="B83" s="6" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C83" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:13:36</t>
-        </is>
-      </c>
-      <c r="D83" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:48:36</t>
-        </is>
-      </c>
-      <c r="E83" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6" t="n">
-        <v>252529</v>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C84" s="6" t="inlineStr">
-        <is>
-          <t>11-09-2025 10:02:51</t>
-        </is>
-      </c>
-      <c r="D84" s="6" t="inlineStr">
-        <is>
-          <t>11-09-2025 10:37:51</t>
-        </is>
-      </c>
-      <c r="E84" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="n">
-        <v>253016</v>
-      </c>
-      <c r="B85" s="8" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C85" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D85" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="E85" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="n">
-        <v>252702</v>
-      </c>
-      <c r="B86" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="D86" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:13:23</t>
-        </is>
-      </c>
-      <c r="E86" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="8" t="n">
-        <v>253362</v>
-      </c>
-      <c r="B87" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:11:46</t>
-        </is>
-      </c>
-      <c r="D87" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="E87" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="n">
-        <v>253259</v>
-      </c>
-      <c r="B88" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C88" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:35:09</t>
-        </is>
-      </c>
-      <c r="D88" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:10:09</t>
-        </is>
-      </c>
-      <c r="E88" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="n">
-        <v>253591</v>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:19:23</t>
-        </is>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:54:23</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="n">
-        <v>235572</v>
-      </c>
-      <c r="B90" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:11:48</t>
-        </is>
-      </c>
-      <c r="D90" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:51:48</t>
-        </is>
-      </c>
-      <c r="E90" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="n">
-        <v>253374</v>
-      </c>
-      <c r="B91" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:14:47</t>
-        </is>
-      </c>
-      <c r="D91" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:44:47</t>
-        </is>
-      </c>
-      <c r="E91" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="n">
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:25:58</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:50:58</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="n">
         <v>252980</v>
       </c>
-      <c r="B92" s="9" t="inlineStr">
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C92" s="9" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D92" s="9" t="inlineStr">
+      <c r="D94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="E92" s="9" t="n">
+      <c r="E94" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/best_ridotto.xlsx
+++ b/PS-VRP/Dati_output/best_ridotto.xlsx
@@ -38,14 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,8 +56,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,14 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252201</v>
+        <v>252378</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-07-2025 12:21:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:06</t>
+          <t>08-07-2025 12:58:33</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:06</t>
+          <t>08-07-2025 13:13:33</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252298</v>
+        <v>251919</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:50:03</t>
+          <t>08-07-2025 13:53:30</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:03</t>
+          <t>08-07-2025 14:27:30</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252210</v>
+        <v>251231</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,21 +619,23 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:17:49</t>
+          <t>09-07-2025 08:47:33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+          <t>09-07-2025 09:23:33</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>252209</v>
+        <v>252350</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,21 +644,23 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:01</t>
+          <t>09-07-2025 14:35:52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
+          <t>09-07-2025 14:58:52</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>244023</v>
+        <v>251849</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,21 +669,23 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:52:13</t>
+          <t>10-07-2025 07:50:45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:28:13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+          <t>10-07-2025 08:11:45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252783</v>
+        <v>252369</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,23 +694,21 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:36:31</t>
+          <t>10-07-2025 08:45:08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:01:31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-07-2025 09:23:08</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252785</v>
+        <v>235572</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -713,23 +717,21 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:13:28</t>
+          <t>10-07-2025 09:42:20</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:28:28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-07-2025 10:20:20</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252784</v>
+        <v>252662</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -738,23 +740,21 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:26:49</t>
+          <t>10-07-2025 11:43:19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:41:49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-07-2025 12:04:19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>252245</v>
+        <v>252473</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:08:47</t>
+          <t>11-07-2025 07:14:11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:42:47</t>
+          <t>11-07-2025 07:29:11</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -777,7 +777,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252456</v>
+        <v>252656</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -786,23 +786,21 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 12:52:33</t>
+          <t>11-07-2025 10:39:03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>11-07-2025 10:54:03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>252519</v>
+        <v>251495</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -811,12 +809,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 07:49:00</t>
+          <t>11-07-2025 14:03:55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 08:23:00</t>
+          <t>11-07-2025 14:24:55</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -825,7 +823,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>252978</v>
+        <v>252598</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -834,12 +832,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 08:34:29</t>
+          <t>14-07-2025 07:37:15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 08:53:29</t>
+          <t>14-07-2025 07:58:15</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -848,7 +846,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>252495</v>
+        <v>252814</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -857,12 +855,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 09:16:47</t>
+          <t>14-07-2025 10:27:53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 09:33:47</t>
+          <t>14-07-2025 11:01:53</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
@@ -871,7 +869,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>252755</v>
+        <v>252686</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -880,12 +878,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 10:44:33</t>
+          <t>14-07-2025 11:51:58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 11:20:33</t>
+          <t>14-07-2025 12:23:58</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
@@ -894,7 +892,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>251812</v>
+        <v>243569</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -917,7 +915,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>252999</v>
+        <v>243536</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -926,21 +924,23 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:00:52</t>
+          <t>08-07-2025 12:48:40</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:42:52</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
+          <t>08-07-2025 13:17:40</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252662</v>
+        <v>252201</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -949,12 +949,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:08:43</t>
+          <t>08-07-2025 14:24:17</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:43</t>
+          <t>08-07-2025 14:53:17</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
@@ -963,7 +963,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>252350</v>
+        <v>252087</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -972,23 +972,21 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 14:45:35</t>
+          <t>09-07-2025 07:27:24</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 07:10:35</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-07-2025 08:07:24</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>252680</v>
+        <v>252999</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -997,12 +995,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 08:02:28</t>
+          <t>09-07-2025 08:42:54</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 08:44:28</t>
+          <t>09-07-2025 09:09:54</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
@@ -1011,7 +1009,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>251926</v>
+        <v>252680</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1020,12 +1018,12 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:10</t>
+          <t>09-07-2025 14:35:44</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 13:43:10</t>
+          <t>10-07-2025 07:17:44</t>
         </is>
       </c>
       <c r="E22" s="3" t="n">
@@ -1034,7 +1032,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>252336</v>
+        <v>252364</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1043,12 +1041,12 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11-07-2025 07:02:05</t>
+          <t>10-07-2025 11:32:26</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>11-07-2025 07:29:05</t>
+          <t>10-07-2025 12:16:26</t>
         </is>
       </c>
       <c r="E23" s="3" t="n">
@@ -1057,400 +1055,406 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:12:55</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:39:55</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>252085</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:41:25</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 08:08:25</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
         <v>252467</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>BIMEC 4</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:29:21</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:54:21</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 08:36:58</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 09:03:58</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>252336</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:25:08</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:50:08</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>252755</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:50:24</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:17:24</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>252978</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:17:00</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>252209</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:40:18</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:59:18</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>252298</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:28:29</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:49:29</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:00:15</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:40:15</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:48:34</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:13:34</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:25:31</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:40:31</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:38:51</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:53:51</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>252245</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:20:50</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:54:50</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:04:35</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:36:35</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>252220</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:01:03</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:18:03</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
         <v>252790</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>BIMEC 5</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:36:00</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:38:34</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:55:34</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>BIMEC 5</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:48:06</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:07:06</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:32:02</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:04:02</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>235572</v>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:34:30</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n">
-        <v>252547</v>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:57:29</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:35:59</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n">
-        <v>252713</v>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:57:09</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:35:39</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:43:25</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 08:19:55</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n">
-        <v>251495</v>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 10:46:16</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:22:46</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>252157</v>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 12:35:06</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:13:36</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>252598</v>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>14-07-2025 11:50:26</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>14-07-2025 12:34:56</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>252426</v>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 07:04:33</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 07:35:03</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>252576</v>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 10:39:20</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 11:09:50</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>252779</v>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>16-07-2025 09:23:54</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>16-07-2025 09:54:24</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>252899</v>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>16-07-2025 12:58:41</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>16-07-2025 13:31:11</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
-        <v>252778</v>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>17-07-2025 08:31:45</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>17-07-2025 09:04:15</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>252470</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>17-07-2025 11:45:15</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>17-07-2025 12:21:45</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="n">
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>11-07-2025 08:07:40</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>11-07-2025 08:30:40</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>252507</v>
+        <v>252713</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1459,12 +1463,12 @@
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>17-07-2025 13:24:15</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>17-07-2025 14:06:45</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
@@ -1472,31 +1476,33 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>252511</v>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>18-07-2025 07:49:38</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>18-07-2025 08:20:08</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="n">
-        <v>0</v>
+      <c r="A42" s="6" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:00:00</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>250383</v>
+        <v>252207</v>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
@@ -1505,12 +1511,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-07-2025 14:38:45</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:00</t>
+          <t>09-07-2025 07:28:45</t>
         </is>
       </c>
       <c r="E43" s="6" t="n">
@@ -1519,7 +1525,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>252207</v>
+        <v>252723</v>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
@@ -1528,12 +1534,12 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:55</t>
+          <t>09-07-2025 08:20:18</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:14:55</t>
+          <t>09-07-2025 08:45:18</t>
         </is>
       </c>
       <c r="E44" s="6" t="n">
@@ -1542,7 +1548,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>252723</v>
+        <v>243527</v>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
@@ -1551,21 +1557,23 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:28</t>
+          <t>09-07-2025 11:19:16</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 07:31:28</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>0</v>
+          <t>09-07-2025 11:54:16</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>252814</v>
+        <v>252519</v>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
@@ -1574,12 +1582,12 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:26</t>
+          <t>09-07-2025 13:00:53</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:35:26</t>
+          <t>09-07-2025 13:35:53</t>
         </is>
       </c>
       <c r="E46" s="6" t="n">
@@ -1588,7 +1596,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>252369</v>
+        <v>252476</v>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
@@ -1597,12 +1605,12 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:31</t>
+          <t>09-07-2025 13:47:21</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:31</t>
+          <t>09-07-2025 14:32:21</t>
         </is>
       </c>
       <c r="E47" s="6" t="n">
@@ -1611,7 +1619,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>252220</v>
+        <v>252277</v>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
@@ -1620,92 +1628,92 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 12:34:43</t>
+          <t>10-07-2025 07:44:42</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 13:34:43</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>0</v>
+          <t>10-07-2025 08:19:42</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>252476</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:55:14</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:25:14</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="n">
+      <c r="A49" s="7" t="n">
+        <v>250383</v>
+      </c>
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:19:00</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:37:34</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:12:34</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A50" s="7" t="n">
+        <v>252210</v>
+      </c>
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:43:55</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:02:55</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>252364</v>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:45:57</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:15:57</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="n">
+      <c r="A51" s="7" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:32:07</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:04:07</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n">
-        <v>243569</v>
+        <v>251812</v>
       </c>
       <c r="B52" s="7" t="inlineStr">
         <is>
@@ -1714,12 +1722,12 @@
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-07-2025 09:44:17</t>
         </is>
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:00</t>
+          <t>09-07-2025 10:16:17</t>
         </is>
       </c>
       <c r="E52" s="7" t="n">
@@ -1728,7 +1736,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="n">
-        <v>252371</v>
+        <v>252890</v>
       </c>
       <c r="B53" s="7" t="inlineStr">
         <is>
@@ -1737,12 +1745,12 @@
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:40</t>
+          <t>09-07-2025 10:50:09</t>
         </is>
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:57:40</t>
+          <t>09-07-2025 11:09:09</t>
         </is>
       </c>
       <c r="E53" s="7" t="n">
@@ -1751,7 +1759,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="n">
-        <v>252378</v>
+        <v>252495</v>
       </c>
       <c r="B54" s="7" t="inlineStr">
         <is>
@@ -1760,12 +1768,12 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:47:43</t>
+          <t>09-07-2025 12:00:51</t>
         </is>
       </c>
       <c r="D54" s="7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:43</t>
+          <t>09-07-2025 12:17:51</t>
         </is>
       </c>
       <c r="E54" s="7" t="n">
@@ -1774,7 +1782,7 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="n">
-        <v>251685</v>
+        <v>251926</v>
       </c>
       <c r="B55" s="8" t="inlineStr">
         <is>
@@ -1788,18 +1796,16 @@
       </c>
       <c r="D55" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:00</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 12:35:00</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="n">
-        <v>251231</v>
+        <v>252334</v>
       </c>
       <c r="B56" s="8" t="inlineStr">
         <is>
@@ -1808,23 +1814,21 @@
       </c>
       <c r="C56" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:45</t>
+          <t>08-07-2025 13:53:55</t>
         </is>
       </c>
       <c r="D56" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:45</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 14:23:55</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="n">
-        <v>252414</v>
+        <v>252157</v>
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
@@ -1833,12 +1837,12 @@
       </c>
       <c r="C57" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:04</t>
+          <t>09-07-2025 14:30:30</t>
         </is>
       </c>
       <c r="D57" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 12:56:04</t>
+          <t>10-07-2025 07:15:30</t>
         </is>
       </c>
       <c r="E57" s="8" t="n">
@@ -1847,7 +1851,7 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="B58" s="8" t="inlineStr">
         <is>
@@ -1856,12 +1860,12 @@
       </c>
       <c r="C58" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:13</t>
+          <t>10-07-2025 13:52:20</t>
         </is>
       </c>
       <c r="D58" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:13</t>
+          <t>10-07-2025 14:47:20</t>
         </is>
       </c>
       <c r="E58" s="8" t="n">
@@ -1870,7 +1874,7 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="n">
-        <v>252473</v>
+        <v>252414</v>
       </c>
       <c r="B59" s="8" t="inlineStr">
         <is>
@@ -1879,12 +1883,12 @@
       </c>
       <c r="C59" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:23</t>
+          <t>15-07-2025 07:49:32</t>
         </is>
       </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 11:23:23</t>
+          <t>15-07-2025 08:34:32</t>
         </is>
       </c>
       <c r="E59" s="8" t="n">
@@ -1893,7 +1897,7 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="n">
-        <v>252087</v>
+        <v>252576</v>
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
@@ -1902,12 +1906,12 @@
       </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 14:33:15</t>
+          <t>15-07-2025 09:51:42</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 07:03:15</t>
+          <t>15-07-2025 10:41:42</t>
         </is>
       </c>
       <c r="E60" s="8" t="n">
@@ -1916,7 +1920,7 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="n">
-        <v>252890</v>
+        <v>252779</v>
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
@@ -1925,12 +1929,12 @@
       </c>
       <c r="C61" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 07:38:45</t>
+          <t>16-07-2025 08:55:46</t>
         </is>
       </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 08:18:45</t>
+          <t>16-07-2025 09:20:46</t>
         </is>
       </c>
       <c r="E61" s="8" t="n">
@@ -1939,7 +1943,7 @@
     </row>
     <row r="62">
       <c r="A62" s="8" t="n">
-        <v>252656</v>
+        <v>252426</v>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
@@ -1948,12 +1952,12 @@
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 09:10:27</t>
+          <t>16-07-2025 12:25:03</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 09:45:27</t>
+          <t>16-07-2025 12:50:03</t>
         </is>
       </c>
       <c r="E62" s="8" t="n">
@@ -1962,7 +1966,7 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="n">
-        <v>252085</v>
+        <v>252778</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
@@ -1971,12 +1975,12 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 12:55:19</t>
+          <t>17-07-2025 07:54:20</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 13:30:19</t>
+          <t>17-07-2025 08:29:20</t>
         </is>
       </c>
       <c r="E63" s="8" t="n">
@@ -1985,7 +1989,7 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="n">
-        <v>252334</v>
+        <v>252899</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
@@ -1994,12 +1998,12 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 13:58:52</t>
+          <t>17-07-2025 11:10:19</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 14:28:52</t>
+          <t>17-07-2025 11:40:19</t>
         </is>
       </c>
       <c r="E64" s="8" t="n">
@@ -2007,108 +2011,100 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="n">
-        <v>243526</v>
-      </c>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:40:00</t>
-        </is>
-      </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A65" s="8" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>17-07-2025 14:40:53</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 07:10:53</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="n">
-        <v>243535</v>
-      </c>
-      <c r="B66" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:46:37</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:11:37</t>
-        </is>
-      </c>
-      <c r="E66" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A66" s="8" t="n">
+        <v>252507</v>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 08:13:23</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 09:08:23</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="n">
-        <v>243536</v>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:18:14</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:43:14</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A67" s="8" t="n">
+        <v>252511</v>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 10:51:16</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 11:16:16</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="n">
-        <v>243523</v>
-      </c>
-      <c r="B68" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:49:51</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:14:51</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A68" s="8" t="n">
+        <v>252517</v>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 12:43:43</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>18-07-2025 13:33:43</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>251790</v>
+        <v>252665</v>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -2117,23 +2113,21 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:28</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:46:28</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 12:35:00</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="n">
-        <v>251919</v>
+        <v>243535</v>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
@@ -2142,21 +2136,23 @@
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:31</t>
+          <t>08-07-2025 13:23:52</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 07:21:31</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="n">
-        <v>0</v>
+          <t>08-07-2025 13:58:52</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="n">
-        <v>243527</v>
+        <v>243523</v>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
@@ -2165,12 +2161,12 @@
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 09:41:34</t>
+          <t>09-07-2025 07:05:29</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 10:21:34</t>
+          <t>09-07-2025 07:30:29</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2181,7 +2177,7 @@
     </row>
     <row r="72">
       <c r="A72" s="9" t="n">
-        <v>252549</v>
+        <v>243526</v>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
@@ -2190,21 +2186,23 @@
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 11:28:11</t>
+          <t>09-07-2025 08:37:06</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 12:08:11</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="n">
-        <v>0</v>
+          <t>09-07-2025 09:02:06</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="n">
-        <v>252638</v>
+        <v>251790</v>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
@@ -2213,21 +2211,23 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 13:40:47</t>
+          <t>09-07-2025 10:08:43</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>10-07-2025 14:15:47</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="n">
-        <v>0</v>
+          <t>09-07-2025 10:33:43</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="n">
-        <v>252686</v>
+        <v>252371</v>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>11-07-2025 07:17:16</t>
+          <t>09-07-2025 14:28:47</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>11-07-2025 07:57:16</t>
+          <t>09-07-2025 14:58:47</t>
         </is>
       </c>
       <c r="E74" s="9" t="n">
@@ -2250,7 +2250,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="n">
-        <v>252665</v>
+        <v>252549</v>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
@@ -2259,15 +2259,38 @@
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>11-07-2025 13:26:25</t>
+          <t>10-07-2025 07:48:49</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>11-07-2025 14:01:25</t>
+          <t>10-07-2025 08:23:49</t>
         </is>
       </c>
       <c r="E75" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:56:25</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:46:25</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
